--- a/biology/Zoologie/Ficus_(mollusque)/Ficus_(mollusque).xlsx
+++ b/biology/Zoologie/Ficus_(mollusque)/Ficus_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus est un genre de mollusques gastéropodes marins de la famille des Ficidae.
 </t>
@@ -513,20 +525,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon BioLib                    (14 août 2019)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 août 2019) :
 Covellia Gasp.
-Ficula Swainson, 1835[3]
-sous-genre Ficus (Ficopsis) Conrad, 1866[3]
+Ficula Swainson, 1835
+sous-genre Ficus (Ficopsis) Conrad, 1866
 Mastosuke Raf.
 Pharmacosycea Miq.
-Pirula Montfort, 1810[3]
-Pyrula Lamarck, 1799[3]
+Pirula Montfort, 1810
+Pyrula Lamarck, 1799
 Sycomorus Gasp.
-Sycotypus Gray, 1847[3]
+Sycotypus Gray, 1847
 Urostigma Gasp.
-Liste d'espèces
-Selon World Register of Marine Species                               (14 août 2019)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ficus_(mollusque)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ficus_(mollusque)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (14 août 2019) :
 Ficus condita (Brongniart, 1823) †
 Ficus dandrimonti Lorenz, 2012
 Ficus eospila (Péron &amp; Lesueur, 1807)
